--- a/docs/Resources/Guides/Payeezy/Payeezy_Developer_API_Element_Mapping.xlsx
+++ b/docs/Resources/Guides/Payeezy/Payeezy_Developer_API_Element_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFE5834-53CA-4621-B4DD-8CC38476A723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB528971-637F-4312-984B-DD3694DE1738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E92A6C69-9137-41E6-80A1-AC212766AA5D}"/>
+    <workbookView xWindow="28680" yWindow="-5415" windowWidth="29040" windowHeight="15840" xr2:uid="{E92A6C69-9137-41E6-80A1-AC212766AA5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Request Element Mapping" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="315">
   <si>
     <t>Commerce Hub Equivalent</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>ResponsePaymentToken.tokenData</t>
+  </si>
+  <si>
+    <t>discover.networkOriginalAmount</t>
   </si>
 </sst>
 </file>
@@ -1889,8 +1892,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6B32AB9-586C-45C3-AF15-906D90CAE37A}" name="Table1" displayName="Table1" ref="A2:B122" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A2:B122" xr:uid="{C6B32AB9-586C-45C3-AF15-906D90CAE37A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6B32AB9-586C-45C3-AF15-906D90CAE37A}" name="Table1" displayName="Table1" ref="A2:B123" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A2:B123" xr:uid="{C6B32AB9-586C-45C3-AF15-906D90CAE37A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C114F832-0D28-4C53-B93A-97F34595CD40}" name="JSON" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{7253B19B-BFCF-4F56-8185-B26FA174CAB8}" name="Payeezy Developer API Specific Values" dataDxfId="12"/>
@@ -1900,8 +1903,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4DE3F19F-1197-47C9-998A-916DEBD53B20}" name="Table2" displayName="Table2" ref="C2:D122" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="C2:D122" xr:uid="{4DE3F19F-1197-47C9-998A-916DEBD53B20}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4DE3F19F-1197-47C9-998A-916DEBD53B20}" name="Table2" displayName="Table2" ref="C2:D123" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="C2:D123" xr:uid="{4DE3F19F-1197-47C9-998A-916DEBD53B20}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C6F808DB-09C5-4477-A8E5-03E4805F32A9}" name="Commerce Hub Element" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{A61A7D8D-678C-4794-8D40-D132B01C22C4}" name="Commerce Hub Equivalent Value" dataDxfId="8"/>
@@ -2229,12 +2232,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90300E-5F3B-487C-9147-6DCE184BEE6E}">
-  <dimension ref="A1:CM122"/>
+  <dimension ref="A1:CM123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3952,22 +3955,22 @@
       </c>
     </row>
     <row r="110" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A110" s="26" t="s">
+      <c r="A110" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="15"/>
+      <c r="C110" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="1:91" x14ac:dyDescent="0.35">
+      <c r="A111" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="B110" s="16"/>
-      <c r="C110" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A111" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="B111" s="15"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="13" t="s">
         <v>3</v>
       </c>
@@ -3977,7 +3980,7 @@
     </row>
     <row r="112" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A112" s="25" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B112" s="15"/>
       <c r="C112" s="13" t="s">
@@ -3989,7 +3992,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="25" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="13" t="s">
@@ -4001,7 +4004,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="25" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="13" t="s">
@@ -4011,85 +4014,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B115" s="15"/>
       <c r="C115" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>254</v>
+        <v>3</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="25" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D116" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="26" t="s">
+      <c r="D117" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B117" s="16"/>
-      <c r="C117" s="11" t="s">
+      <c r="B118" s="16"/>
+      <c r="C118" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D117" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="25" t="s">
+      <c r="D118" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="11" t="s">
+      <c r="B119" s="15"/>
+      <c r="C119" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="25" t="s">
+      <c r="D119" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B120" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C119" s="23" t="s">
+      <c r="C120" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="D119" s="21" t="s">
+      <c r="D120" s="21" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="26" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B120" s="16"/>
-      <c r="C120" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="B121" s="15"/>
+      <c r="B121" s="16"/>
       <c r="C121" s="13" t="s">
         <v>3</v>
       </c>
@@ -4098,14 +4101,26 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="27" t="s">
+      <c r="A122" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B122" s="15"/>
+      <c r="C122" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B122" s="17"/>
-      <c r="C122" s="18" t="s">
+      <c r="B123" s="17"/>
+      <c r="C123" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D123" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5044,7 +5059,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56DEBC12-77A5-4A33-8276-0A31CD496C18}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21E83F60-BC4E-4F25-B3DD-68CBE744300F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/docs/Resources/Guides/Payeezy/Payeezy_Developer_API_Element_Mapping.xlsx
+++ b/docs/Resources/Guides/Payeezy/Payeezy_Developer_API_Element_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BD6592-492A-4FD5-B971-C8F2C54DFC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB528971-637F-4312-984B-DD3694DE1738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9195" yWindow="-20820" windowWidth="23505" windowHeight="19365" xr2:uid="{E92A6C69-9137-41E6-80A1-AC212766AA5D}"/>
+    <workbookView xWindow="28680" yWindow="-5415" windowWidth="29040" windowHeight="15840" xr2:uid="{E92A6C69-9137-41E6-80A1-AC212766AA5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Request Element Mapping" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="315">
   <si>
     <t>Commerce Hub Equivalent</t>
   </si>
@@ -1124,6 +1124,9 @@
   </si>
   <si>
     <t>ResponsePaymentToken.tokenData</t>
+  </si>
+  <si>
+    <t>discover.networkOriginalAmount</t>
   </si>
 </sst>
 </file>
@@ -1417,12 +1420,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1431,9 +1428,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1492,86 +1486,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1653,17 +1581,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1728,7 +1646,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1738,7 +1656,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1750,21 +1668,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
-          <color indexed="64"/>
+          <color auto="1"/>
         </left>
         <right style="thin">
           <color auto="1"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1827,6 +1739,31 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1863,6 +1800,47 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <right style="thick">
           <color auto="1"/>
@@ -1874,6 +1852,31 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1889,44 +1892,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6B32AB9-586C-45C3-AF15-906D90CAE37A}" name="Table1" displayName="Table1" ref="A2:B122" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="15">
-  <autoFilter ref="A2:B122" xr:uid="{C6B32AB9-586C-45C3-AF15-906D90CAE37A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C6B32AB9-586C-45C3-AF15-906D90CAE37A}" name="Table1" displayName="Table1" ref="A2:B123" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A2:B123" xr:uid="{C6B32AB9-586C-45C3-AF15-906D90CAE37A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C114F832-0D28-4C53-B93A-97F34595CD40}" name="JSON" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{7253B19B-BFCF-4F56-8185-B26FA174CAB8}" name="Payeezy Developer API Specific Values" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{C114F832-0D28-4C53-B93A-97F34595CD40}" name="JSON" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{7253B19B-BFCF-4F56-8185-B26FA174CAB8}" name="Payeezy Developer API Specific Values" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4DE3F19F-1197-47C9-998A-916DEBD53B20}" name="Table2" displayName="Table2" ref="C2:D122" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="13">
-  <autoFilter ref="C2:D122" xr:uid="{4DE3F19F-1197-47C9-998A-916DEBD53B20}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4DE3F19F-1197-47C9-998A-916DEBD53B20}" name="Table2" displayName="Table2" ref="C2:D123" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="C2:D123" xr:uid="{4DE3F19F-1197-47C9-998A-916DEBD53B20}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C6F808DB-09C5-4477-A8E5-03E4805F32A9}" name="Commerce Hub Element" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{A61A7D8D-678C-4794-8D40-D132B01C22C4}" name="Commerce Hub Equivalent Value" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{C6F808DB-09C5-4477-A8E5-03E4805F32A9}" name="Commerce Hub Element" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{A61A7D8D-678C-4794-8D40-D132B01C22C4}" name="Commerce Hub Equivalent Value" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10A31D1A-4411-448F-A57A-8C22676832BC}" name="Table3" displayName="Table3" ref="A2:B72" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{10A31D1A-4411-448F-A57A-8C22676832BC}" name="Table3" displayName="Table3" ref="A2:B72" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A2:B72" xr:uid="{10A31D1A-4411-448F-A57A-8C22676832BC}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C7E9E27F-1836-475A-BCAC-ED26AE69AE27}" name="JSON" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{3FED9BCE-3404-4B84-8EE0-A96961A35749}" name="Payeezy Developer API Specific Values" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{C7E9E27F-1836-475A-BCAC-ED26AE69AE27}" name="JSON" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3FED9BCE-3404-4B84-8EE0-A96961A35749}" name="Payeezy Developer API Specific Values" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C00085FC-89D4-4BF8-A2A0-1B2FBA0A0F58}" name="Table4" displayName="Table4" ref="C2:D72" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C00085FC-89D4-4BF8-A2A0-1B2FBA0A0F58}" name="Table4" displayName="Table4" ref="C2:D72" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="C2:D72" xr:uid="{C00085FC-89D4-4BF8-A2A0-1B2FBA0A0F58}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C381B958-5E4A-466F-93F2-5C8B80E0BE3F}" name="Commerce Hub Element" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{CDAA1C9E-9B23-4355-8580-8595BC23A277}" name="Commerce Hub Equivalent Value" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{C381B958-5E4A-466F-93F2-5C8B80E0BE3F}" name="Commerce Hub Element" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CDAA1C9E-9B23-4355-8580-8595BC23A277}" name="Commerce Hub Equivalent Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2229,48 +2232,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90300E-5F3B-487C-9147-6DCE184BEE6E}">
-  <dimension ref="A1:CM122"/>
+  <dimension ref="A1:CM123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47" style="9" customWidth="1"/>
-    <col min="2" max="2" width="35.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="121.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.7265625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="33" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="25" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2284,7 +2287,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="26" t="s">
         <v>221</v>
       </c>
       <c r="B4" s="16"/>
@@ -2296,7 +2299,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="26" t="s">
         <v>222</v>
       </c>
       <c r="B5" s="16"/>
@@ -2308,7 +2311,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="26" t="s">
         <v>225</v>
       </c>
       <c r="B6" s="16"/>
@@ -2320,7 +2323,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>226</v>
       </c>
       <c r="B7" s="16"/>
@@ -2332,7 +2335,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="26" t="s">
         <v>227</v>
       </c>
       <c r="B8" s="16"/>
@@ -2344,7 +2347,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="26" t="s">
         <v>228</v>
       </c>
       <c r="B9" s="16"/>
@@ -2356,7 +2359,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="26" t="s">
         <v>218</v>
       </c>
       <c r="B10" s="16"/>
@@ -2368,7 +2371,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="26" t="s">
         <v>223</v>
       </c>
       <c r="B11" s="16"/>
@@ -2380,10 +2383,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>267</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -2394,7 +2397,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="26" t="s">
         <v>224</v>
       </c>
       <c r="B13" s="16"/>
@@ -2406,7 +2409,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="25" t="s">
         <v>97</v>
       </c>
       <c r="B14" s="15" t="s">
@@ -2420,7 +2423,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>230</v>
       </c>
       <c r="B15" s="16"/>
@@ -2432,7 +2435,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>181</v>
       </c>
       <c r="B16" s="15"/>
@@ -2444,7 +2447,7 @@
       </c>
     </row>
     <row r="17" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>180</v>
       </c>
       <c r="B17" s="15"/>
@@ -2456,7 +2459,7 @@
       </c>
     </row>
     <row r="18" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="25" t="s">
         <v>169</v>
       </c>
       <c r="B18" s="15"/>
@@ -2468,7 +2471,7 @@
       </c>
     </row>
     <row r="19" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="26" t="s">
         <v>184</v>
       </c>
       <c r="B19" s="16"/>
@@ -2480,7 +2483,7 @@
       </c>
     </row>
     <row r="20" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="26" t="s">
         <v>188</v>
       </c>
       <c r="B20" s="16"/>
@@ -2492,7 +2495,7 @@
       </c>
     </row>
     <row r="21" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="26" t="s">
         <v>186</v>
       </c>
       <c r="B21" s="16"/>
@@ -2504,7 +2507,7 @@
       </c>
     </row>
     <row r="22" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="26" t="s">
         <v>187</v>
       </c>
       <c r="B22" s="16"/>
@@ -2516,7 +2519,7 @@
       </c>
     </row>
     <row r="23" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="25" t="s">
         <v>179</v>
       </c>
       <c r="B23" s="15"/>
@@ -2528,7 +2531,7 @@
       </c>
     </row>
     <row r="24" spans="1:91" ht="58" x14ac:dyDescent="0.35">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="25" t="s">
         <v>178</v>
       </c>
       <c r="B24" s="15" t="s">
@@ -2542,7 +2545,7 @@
       </c>
     </row>
     <row r="25" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="25" t="s">
         <v>177</v>
       </c>
       <c r="B25" s="15"/>
@@ -2554,7 +2557,7 @@
       </c>
     </row>
     <row r="26" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="25" t="s">
         <v>183</v>
       </c>
       <c r="B26" s="15"/>
@@ -2653,7 +2656,7 @@
       <c r="CM26"/>
     </row>
     <row r="27" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="25" t="s">
         <v>182</v>
       </c>
       <c r="B27" s="15"/>
@@ -2665,7 +2668,7 @@
       </c>
     </row>
     <row r="28" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="25" t="s">
         <v>176</v>
       </c>
       <c r="B28" s="15"/>
@@ -2677,7 +2680,7 @@
       </c>
     </row>
     <row r="29" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="25" t="s">
         <v>170</v>
       </c>
       <c r="B29" s="15"/>
@@ -2689,7 +2692,7 @@
       </c>
     </row>
     <row r="30" spans="1:91" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="25" t="s">
         <v>174</v>
       </c>
       <c r="B30" s="15"/>
@@ -2701,7 +2704,7 @@
       </c>
     </row>
     <row r="31" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="25" t="s">
         <v>164</v>
       </c>
       <c r="B31" s="15"/>
@@ -2713,19 +2716,19 @@
       </c>
     </row>
     <row r="32" spans="1:91" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="25" t="s">
         <v>172</v>
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="21" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="25" t="s">
         <v>166</v>
       </c>
       <c r="B33" s="15"/>
@@ -2737,7 +2740,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B34" s="15"/>
@@ -2749,21 +2752,21 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="24" t="s">
         <v>277</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="21" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="15" t="s">
@@ -2777,7 +2780,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="25" t="s">
         <v>157</v>
       </c>
       <c r="B37" s="15"/>
@@ -2789,7 +2792,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="25" t="s">
         <v>165</v>
       </c>
       <c r="B38" s="15"/>
@@ -2801,7 +2804,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="25" t="s">
         <v>140</v>
       </c>
       <c r="B39" s="15"/>
@@ -2813,7 +2816,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="25" t="s">
         <v>139</v>
       </c>
       <c r="B40" s="15"/>
@@ -2825,7 +2828,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="25" t="s">
         <v>138</v>
       </c>
       <c r="B41" s="15"/>
@@ -2837,7 +2840,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="25" t="s">
         <v>137</v>
       </c>
       <c r="B42" s="15"/>
@@ -2849,7 +2852,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="25" t="s">
         <v>86</v>
       </c>
       <c r="B43" s="15" t="s">
@@ -2863,7 +2866,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="25" t="s">
         <v>161</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -2877,7 +2880,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -2891,7 +2894,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="25" t="s">
         <v>79</v>
       </c>
       <c r="B46" s="15" t="s">
@@ -2905,7 +2908,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B47" s="15"/>
@@ -2917,7 +2920,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="28" t="s">
+      <c r="A48" s="25" t="s">
         <v>75</v>
       </c>
       <c r="B48" s="15"/>
@@ -2929,7 +2932,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="28" t="s">
+      <c r="A49" s="25" t="s">
         <v>73</v>
       </c>
       <c r="B49" s="15" t="s">
@@ -2943,7 +2946,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B50" s="15"/>
@@ -2955,7 +2958,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="28" t="s">
+      <c r="A51" s="25" t="s">
         <v>69</v>
       </c>
       <c r="B51" s="15"/>
@@ -2967,7 +2970,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="28" t="s">
+      <c r="A52" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -2981,7 +2984,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B53" s="15"/>
@@ -2993,7 +2996,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A54" s="28" t="s">
+      <c r="A54" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B54" s="15"/>
@@ -3005,7 +3008,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="25" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="15" t="s">
@@ -3019,7 +3022,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="25" t="s">
         <v>59</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -3033,21 +3036,21 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="232" x14ac:dyDescent="0.35">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="24" t="s">
         <v>280</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D57" s="21" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A58" s="28" t="s">
+      <c r="A58" s="25" t="s">
         <v>160</v>
       </c>
       <c r="B58" s="15" t="s">
@@ -3061,7 +3064,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A59" s="28" t="s">
+      <c r="A59" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B59" s="15"/>
@@ -3073,7 +3076,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B60" s="15"/>
@@ -3085,7 +3088,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A61" s="28" t="s">
+      <c r="A61" s="25" t="s">
         <v>49</v>
       </c>
       <c r="B61" s="15"/>
@@ -3097,7 +3100,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="25" t="s">
         <v>191</v>
       </c>
       <c r="B62" s="15"/>
@@ -3109,7 +3112,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B63" s="15"/>
@@ -3121,7 +3124,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="25" t="s">
         <v>46</v>
       </c>
       <c r="B64" s="15"/>
@@ -3133,7 +3136,7 @@
       </c>
     </row>
     <row r="65" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B65" s="15"/>
@@ -3145,7 +3148,7 @@
       </c>
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="25" t="s">
         <v>42</v>
       </c>
       <c r="B66" s="15"/>
@@ -3157,7 +3160,7 @@
       </c>
     </row>
     <row r="67" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A67" s="28" t="s">
+      <c r="A67" s="25" t="s">
         <v>196</v>
       </c>
       <c r="B67" s="15"/>
@@ -3169,7 +3172,7 @@
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="25" t="s">
         <v>198</v>
       </c>
       <c r="B68" s="15"/>
@@ -3181,7 +3184,7 @@
       </c>
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="25" t="s">
         <v>200</v>
       </c>
       <c r="B69" s="15"/>
@@ -3193,7 +3196,7 @@
       </c>
     </row>
     <row r="70" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="25" t="s">
         <v>195</v>
       </c>
       <c r="B70" s="15"/>
@@ -3205,7 +3208,7 @@
       </c>
     </row>
     <row r="71" spans="1:91" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B71" s="15"/>
@@ -3217,7 +3220,7 @@
       </c>
     </row>
     <row r="72" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B72" s="15"/>
@@ -3229,7 +3232,7 @@
       </c>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="25" t="s">
         <v>193</v>
       </c>
       <c r="B73" s="15"/>
@@ -3241,7 +3244,7 @@
       </c>
     </row>
     <row r="74" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B74" s="15"/>
@@ -3253,7 +3256,7 @@
       </c>
     </row>
     <row r="75" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B75" s="15"/>
@@ -3265,7 +3268,7 @@
       </c>
     </row>
     <row r="76" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B76" s="15" t="s">
@@ -3279,7 +3282,7 @@
       </c>
     </row>
     <row r="77" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B77" s="15" t="s">
@@ -3293,7 +3296,7 @@
       </c>
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="25" t="s">
         <v>162</v>
       </c>
       <c r="B78" s="15"/>
@@ -3305,7 +3308,7 @@
       </c>
     </row>
     <row r="79" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="25" t="s">
         <v>156</v>
       </c>
       <c r="B79" s="15"/>
@@ -3317,7 +3320,7 @@
       </c>
     </row>
     <row r="80" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="25" t="s">
         <v>155</v>
       </c>
       <c r="B80" s="15"/>
@@ -3416,7 +3419,7 @@
       <c r="CM80"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="25" t="s">
         <v>201</v>
       </c>
       <c r="B81" s="15"/>
@@ -3428,7 +3431,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="28" t="s">
+      <c r="A82" s="25" t="s">
         <v>202</v>
       </c>
       <c r="B82" s="15" t="s">
@@ -3442,7 +3445,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="28" t="s">
+      <c r="A83" s="25" t="s">
         <v>203</v>
       </c>
       <c r="B83" s="15" t="s">
@@ -3456,7 +3459,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="25" t="s">
         <v>204</v>
       </c>
       <c r="B84" s="15" t="s">
@@ -3470,7 +3473,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="25" t="s">
         <v>190</v>
       </c>
       <c r="B85" s="15"/>
@@ -3482,7 +3485,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="25" t="s">
         <v>208</v>
       </c>
       <c r="B86" s="15" t="s">
@@ -3496,7 +3499,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="25" t="s">
         <v>205</v>
       </c>
       <c r="B87" s="15"/>
@@ -3508,7 +3511,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B88" s="15"/>
@@ -3520,7 +3523,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="25" t="s">
         <v>168</v>
       </c>
       <c r="B89" s="15"/>
@@ -3532,11 +3535,11 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="25" t="s">
         <v>167</v>
       </c>
       <c r="B90" s="15"/>
-      <c r="C90" s="25" t="s">
+      <c r="C90" s="22" t="s">
         <v>286</v>
       </c>
       <c r="D90" s="12" t="s">
@@ -3544,7 +3547,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="25" t="s">
         <v>206</v>
       </c>
       <c r="B91" s="15"/>
@@ -3556,7 +3559,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="28" t="s">
+      <c r="A92" s="25" t="s">
         <v>154</v>
       </c>
       <c r="B92" s="15"/>
@@ -3568,7 +3571,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="28" t="s">
+      <c r="A93" s="25" t="s">
         <v>153</v>
       </c>
       <c r="B93" s="15"/>
@@ -3580,7 +3583,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="25" t="s">
         <v>152</v>
       </c>
       <c r="B94" s="15"/>
@@ -3592,7 +3595,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="28" t="s">
+      <c r="A95" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B95" s="15"/>
@@ -3604,7 +3607,7 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="28" t="s">
+      <c r="A96" s="25" t="s">
         <v>151</v>
       </c>
       <c r="B96" s="15"/>
@@ -3616,7 +3619,7 @@
       </c>
     </row>
     <row r="97" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B97" s="15"/>
@@ -3628,7 +3631,7 @@
       </c>
     </row>
     <row r="98" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="25" t="s">
         <v>150</v>
       </c>
       <c r="B98" s="15"/>
@@ -3640,7 +3643,7 @@
       </c>
     </row>
     <row r="99" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A99" s="28" t="s">
+      <c r="A99" s="25" t="s">
         <v>149</v>
       </c>
       <c r="B99" s="15"/>
@@ -3652,7 +3655,7 @@
       </c>
     </row>
     <row r="100" spans="1:91" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="25" t="s">
         <v>148</v>
       </c>
       <c r="B100" s="15"/>
@@ -3751,7 +3754,7 @@
       <c r="CM100"/>
     </row>
     <row r="101" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="25" t="s">
         <v>147</v>
       </c>
       <c r="B101" s="15"/>
@@ -3763,7 +3766,7 @@
       </c>
     </row>
     <row r="102" spans="1:91" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="25" t="s">
         <v>146</v>
       </c>
       <c r="B102" s="15"/>
@@ -3862,21 +3865,21 @@
       <c r="CM102"/>
     </row>
     <row r="103" spans="1:91" ht="29" x14ac:dyDescent="0.35">
-      <c r="A103" s="28" t="s">
+      <c r="A103" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B103" s="27" t="s">
+      <c r="B103" s="24" t="s">
         <v>288</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D103" s="24" t="s">
+      <c r="D103" s="21" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="104" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A104" s="28" t="s">
+      <c r="A104" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B104" s="15"/>
@@ -3888,7 +3891,7 @@
       </c>
     </row>
     <row r="105" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A105" s="28" t="s">
+      <c r="A105" s="25" t="s">
         <v>141</v>
       </c>
       <c r="B105" s="15"/>
@@ -3900,7 +3903,7 @@
       </c>
     </row>
     <row r="106" spans="1:91" ht="29" x14ac:dyDescent="0.35">
-      <c r="A106" s="28" t="s">
+      <c r="A106" s="25" t="s">
         <v>143</v>
       </c>
       <c r="B106" s="11" t="s">
@@ -3914,7 +3917,7 @@
       </c>
     </row>
     <row r="107" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A107" s="28" t="s">
+      <c r="A107" s="25" t="s">
         <v>142</v>
       </c>
       <c r="B107" s="15"/>
@@ -3926,7 +3929,7 @@
       </c>
     </row>
     <row r="108" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A108" s="28" t="s">
+      <c r="A108" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B108" s="15"/>
@@ -3938,10 +3941,10 @@
       </c>
     </row>
     <row r="109" spans="1:91" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="B109" s="23" t="s">
+      <c r="B109" s="20" t="s">
         <v>292</v>
       </c>
       <c r="C109" s="13" t="s">
@@ -3952,22 +3955,22 @@
       </c>
     </row>
     <row r="110" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A110" s="29" t="s">
+      <c r="A110" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="B110" s="15"/>
+      <c r="C110" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" spans="1:91" x14ac:dyDescent="0.35">
+      <c r="A111" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="B110" s="16"/>
-      <c r="C110" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A111" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="B111" s="15"/>
+      <c r="B111" s="16"/>
       <c r="C111" s="13" t="s">
         <v>3</v>
       </c>
@@ -3976,8 +3979,8 @@
       </c>
     </row>
     <row r="112" spans="1:91" x14ac:dyDescent="0.35">
-      <c r="A112" s="28" t="s">
-        <v>214</v>
+      <c r="A112" s="25" t="s">
+        <v>209</v>
       </c>
       <c r="B112" s="15"/>
       <c r="C112" s="13" t="s">
@@ -3988,8 +3991,8 @@
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="28" t="s">
-        <v>210</v>
+      <c r="A113" s="25" t="s">
+        <v>214</v>
       </c>
       <c r="B113" s="15"/>
       <c r="C113" s="13" t="s">
@@ -4000,8 +4003,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="28" t="s">
-        <v>211</v>
+      <c r="A114" s="25" t="s">
+        <v>210</v>
       </c>
       <c r="B114" s="15"/>
       <c r="C114" s="13" t="s">
@@ -4011,85 +4014,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" s="28" t="s">
-        <v>212</v>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="25" t="s">
+        <v>211</v>
       </c>
       <c r="B115" s="15"/>
       <c r="C115" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="D115" s="12" t="s">
-        <v>254</v>
+        <v>3</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="28" t="s">
-        <v>215</v>
+      <c r="A116" s="25" t="s">
+        <v>212</v>
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D116" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="29" t="s">
+      <c r="D117" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B117" s="16"/>
-      <c r="C117" s="11" t="s">
+      <c r="B118" s="16"/>
+      <c r="C118" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D117" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="28" t="s">
+      <c r="D118" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="11" t="s">
+      <c r="B119" s="15"/>
+      <c r="C119" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="28" t="s">
+      <c r="D119" s="12" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="B120" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C120" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="D119" s="24" t="s">
+      <c r="D120" s="21" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="29" t="s">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="B120" s="16"/>
-      <c r="C120" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B121" s="15"/>
+      <c r="B121" s="16"/>
       <c r="C121" s="13" t="s">
         <v>3</v>
       </c>
@@ -4098,14 +4101,26 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="30" t="s">
+      <c r="A122" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B122" s="15"/>
+      <c r="C122" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="20" t="s">
+      <c r="B123" s="17"/>
+      <c r="C123" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D122" s="21" t="s">
+      <c r="D123" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4133,39 +4148,39 @@
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.08984375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="52.08984375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="102.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="118.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.36328125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="102.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.54296875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="40" t="s">
         <v>298</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="37" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4173,7 +4188,7 @@
       <c r="A3" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="30" t="s">
         <v>299</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -4187,7 +4202,7 @@
       <c r="A4" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="13" t="s">
         <v>109</v>
       </c>
@@ -4199,7 +4214,7 @@
       <c r="A5" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="13" t="s">
         <v>110</v>
       </c>
@@ -4211,7 +4226,7 @@
       <c r="A6" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="13" t="s">
         <v>112</v>
       </c>
@@ -4237,7 +4252,7 @@
       <c r="A8" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="13" t="s">
         <v>114</v>
       </c>
@@ -4249,7 +4264,7 @@
       <c r="A9" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="13" t="s">
         <v>99</v>
       </c>
@@ -4261,7 +4276,7 @@
       <c r="A10" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="13" t="s">
         <v>115</v>
       </c>
@@ -4273,13 +4288,13 @@
       <c r="A11" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="34" t="s">
         <v>305</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="34" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4287,13 +4302,13 @@
       <c r="A12" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="34" t="s">
         <v>306</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="21" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4301,7 +4316,7 @@
       <c r="A13" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="30" t="s">
         <v>310</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4315,7 +4330,7 @@
       <c r="A14" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="13" t="s">
         <v>122</v>
       </c>
@@ -4327,7 +4342,7 @@
       <c r="A15" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="13" t="s">
         <v>123</v>
       </c>
@@ -4339,7 +4354,7 @@
       <c r="A16" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="30" t="s">
         <v>269</v>
       </c>
       <c r="C16" s="13" t="s">
@@ -4353,7 +4368,7 @@
       <c r="A17" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="34" t="s">
         <v>126</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -4365,7 +4380,7 @@
       <c r="A18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="13" t="s">
         <v>127</v>
       </c>
@@ -4377,7 +4392,7 @@
       <c r="A19" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="13" t="s">
         <v>123</v>
       </c>
@@ -4389,7 +4404,7 @@
       <c r="A20" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B20" s="33"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="13" t="s">
         <v>123</v>
       </c>
@@ -4401,7 +4416,7 @@
       <c r="A21" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="13" t="s">
         <v>128</v>
       </c>
@@ -4413,7 +4428,7 @@
       <c r="A22" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="34" t="s">
         <v>129</v>
       </c>
       <c r="C22" s="13" t="s">
@@ -4437,7 +4452,7 @@
       <c r="A24" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="33"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="13" t="s">
         <v>123</v>
       </c>
@@ -4449,7 +4464,7 @@
       <c r="A25" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B25" s="33"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
         <v>91</v>
       </c>
@@ -4461,7 +4476,7 @@
       <c r="A26" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="33"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
         <v>133</v>
       </c>
@@ -4473,7 +4488,7 @@
       <c r="A27" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="13" t="s">
         <v>134</v>
       </c>
@@ -4485,7 +4500,7 @@
       <c r="A28" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="33"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="13" t="s">
         <v>311</v>
       </c>
@@ -4497,7 +4512,7 @@
       <c r="A29" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="13" t="s">
         <v>311</v>
       </c>
@@ -4509,7 +4524,7 @@
       <c r="A30" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B30" s="33"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="13" t="s">
         <v>311</v>
       </c>
@@ -4521,7 +4536,7 @@
       <c r="A31" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="33"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="13" t="s">
         <v>311</v>
       </c>
@@ -4533,7 +4548,7 @@
       <c r="A32" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="33"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="13" t="s">
         <v>311</v>
       </c>
@@ -4545,7 +4560,7 @@
       <c r="A33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="33"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="13" t="s">
         <v>311</v>
       </c>
@@ -4557,7 +4572,7 @@
       <c r="A34" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B34" s="33"/>
+      <c r="B34" s="30"/>
       <c r="C34" s="13" t="s">
         <v>311</v>
       </c>
@@ -4569,7 +4584,7 @@
       <c r="A35" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="30"/>
       <c r="C35" s="13" t="s">
         <v>311</v>
       </c>
@@ -4581,7 +4596,7 @@
       <c r="A36" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="33"/>
+      <c r="B36" s="30"/>
       <c r="C36" s="13" t="s">
         <v>311</v>
       </c>
@@ -4593,7 +4608,7 @@
       <c r="A37" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="33"/>
+      <c r="B37" s="30"/>
       <c r="C37" s="13" t="s">
         <v>311</v>
       </c>
@@ -4605,7 +4620,7 @@
       <c r="A38" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="13" t="s">
         <v>311</v>
       </c>
@@ -4617,7 +4632,7 @@
       <c r="A39" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="33"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="13" t="s">
         <v>311</v>
       </c>
@@ -4629,7 +4644,7 @@
       <c r="A40" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="33"/>
+      <c r="B40" s="30"/>
       <c r="C40" s="13" t="s">
         <v>311</v>
       </c>
@@ -4641,7 +4656,7 @@
       <c r="A41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="33"/>
+      <c r="B41" s="30"/>
       <c r="C41" s="13" t="s">
         <v>311</v>
       </c>
@@ -4653,7 +4668,7 @@
       <c r="A42" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="33"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="13" t="s">
         <v>311</v>
       </c>
@@ -4665,7 +4680,7 @@
       <c r="A43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="33"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="13" t="s">
         <v>311</v>
       </c>
@@ -4677,7 +4692,7 @@
       <c r="A44" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="13" t="s">
         <v>311</v>
       </c>
@@ -4689,7 +4704,7 @@
       <c r="A45" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="33"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="13" t="s">
         <v>311</v>
       </c>
@@ -4701,7 +4716,7 @@
       <c r="A46" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B46" s="33"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="13" t="s">
         <v>311</v>
       </c>
@@ -4713,7 +4728,7 @@
       <c r="A47" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="33"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="13" t="s">
         <v>311</v>
       </c>
@@ -4725,7 +4740,7 @@
       <c r="A48" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="33"/>
+      <c r="B48" s="30"/>
       <c r="C48" s="13" t="s">
         <v>311</v>
       </c>
@@ -4737,7 +4752,7 @@
       <c r="A49" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="33"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="13" t="s">
         <v>311</v>
       </c>
@@ -4749,7 +4764,7 @@
       <c r="A50" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="33"/>
+      <c r="B50" s="30"/>
       <c r="C50" s="13" t="s">
         <v>311</v>
       </c>
@@ -4761,7 +4776,7 @@
       <c r="A51" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="33"/>
+      <c r="B51" s="30"/>
       <c r="C51" s="13" t="s">
         <v>311</v>
       </c>
@@ -4773,7 +4788,7 @@
       <c r="A52" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B52" s="33"/>
+      <c r="B52" s="30"/>
       <c r="C52" s="13" t="s">
         <v>311</v>
       </c>
@@ -4785,7 +4800,7 @@
       <c r="A53" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="33"/>
+      <c r="B53" s="30"/>
       <c r="C53" s="13" t="s">
         <v>311</v>
       </c>
@@ -4797,7 +4812,7 @@
       <c r="A54" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="33"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="13" t="s">
         <v>311</v>
       </c>
@@ -4809,7 +4824,7 @@
       <c r="A55" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="33"/>
+      <c r="B55" s="30"/>
       <c r="C55" s="13" t="s">
         <v>311</v>
       </c>
@@ -4821,7 +4836,7 @@
       <c r="A56" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="33"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="13" t="s">
         <v>311</v>
       </c>
@@ -4833,7 +4848,7 @@
       <c r="A57" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="33"/>
+      <c r="B57" s="30"/>
       <c r="C57" s="13" t="s">
         <v>311</v>
       </c>
@@ -4845,7 +4860,7 @@
       <c r="A58" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B58" s="33"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="13" t="s">
         <v>123</v>
       </c>
@@ -4857,7 +4872,7 @@
       <c r="A59" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="B59" s="33"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="13" t="s">
         <v>123</v>
       </c>
@@ -4869,7 +4884,7 @@
       <c r="A60" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B60" s="33"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="13" t="s">
         <v>123</v>
       </c>
@@ -4881,7 +4896,7 @@
       <c r="A61" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="B61" s="33"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="13" t="s">
         <v>123</v>
       </c>
@@ -4893,7 +4908,7 @@
       <c r="A62" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="B62" s="33"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="13" t="s">
         <v>123</v>
       </c>
@@ -4905,7 +4920,7 @@
       <c r="A63" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="B63" s="33"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="13" t="s">
         <v>312</v>
       </c>
@@ -4917,7 +4932,7 @@
       <c r="A64" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="B64" s="33"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="13" t="s">
         <v>313</v>
       </c>
@@ -4929,7 +4944,7 @@
       <c r="A65" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="33"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="13" t="s">
         <v>311</v>
       </c>
@@ -4941,7 +4956,7 @@
       <c r="A66" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B66" s="33"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="13" t="s">
         <v>311</v>
       </c>
@@ -4953,7 +4968,7 @@
       <c r="A67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="33"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="13" t="s">
         <v>311</v>
       </c>
@@ -4965,7 +4980,7 @@
       <c r="A68" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B68" s="33"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="13" t="s">
         <v>311</v>
       </c>
@@ -4977,7 +4992,7 @@
       <c r="A69" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="B69" s="33"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="13" t="s">
         <v>311</v>
       </c>
@@ -4989,7 +5004,7 @@
       <c r="A70" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="30" t="s">
         <v>310</v>
       </c>
       <c r="C70" s="13" t="s">
@@ -5003,7 +5018,7 @@
       <c r="A71" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="20" t="s">
         <v>292</v>
       </c>
       <c r="C71" s="13" t="s">
@@ -5014,14 +5029,14 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="20" t="s">
+      <c r="B72" s="32"/>
+      <c r="C72" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D72" s="34" t="s">
+      <c r="D72" s="31" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5044,7 +5059,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{423DCF51-B117-4852-97E9-017FEA050C70}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21E83F60-BC4E-4F25-B3DD-68CBE744300F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/docs/Resources/Guides/Payeezy/Payeezy_Developer_API_Element_Mapping.xlsx
+++ b/docs/Resources/Guides/Payeezy/Payeezy_Developer_API_Element_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB528971-637F-4312-984B-DD3694DE1738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A793FD7-048E-47C7-A1B5-50BEE0EF2682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5415" windowWidth="29040" windowHeight="15840" xr2:uid="{E92A6C69-9137-41E6-80A1-AC212766AA5D}"/>
+    <workbookView xWindow="28875" yWindow="-5205" windowWidth="14400" windowHeight="14925" xr2:uid="{E92A6C69-9137-41E6-80A1-AC212766AA5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Request Element Mapping" sheetId="3" r:id="rId1"/>
@@ -702,10 +702,6 @@
     <t>token.token_type</t>
   </si>
   <si>
-    <t>payment-token-objects.yaml
-PaymentToken.tokenSource</t>
-  </si>
-  <si>
     <t>stored_credentials_amex</t>
   </si>
   <si>
@@ -713,9 +709,6 @@
   </si>
   <si>
     <t>3DS.type</t>
-  </si>
-  <si>
-    <t>source.paymentsource</t>
   </si>
   <si>
     <t>3DS.applicationData</t>
@@ -836,13 +829,7 @@
     <t>AppleHeader.ephemeralPublicKey</t>
   </si>
   <si>
-    <t>AppleHeader.PublicKeyHash</t>
-  </si>
-  <si>
     <t>AppleHeader.transactionId</t>
-  </si>
-  <si>
-    <t>Applepay.applepaymerchantId</t>
   </si>
   <si>
     <t>Applepay.signature
@@ -1127,6 +1114,18 @@
   </si>
   <si>
     <t>discover.networkOriginalAmount</t>
+  </si>
+  <si>
+    <t>AppleHeader.publicKeyHash</t>
+  </si>
+  <si>
+    <t>Applepay.applePayMerchantId</t>
+  </si>
+  <si>
+    <t>source.paymentSource</t>
+  </si>
+  <si>
+    <t>PaymentToken.tokenSource</t>
   </si>
 </sst>
 </file>
@@ -2235,9 +2234,9 @@
   <dimension ref="A1:CM123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2250,11 +2249,11 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="39" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D1" s="39"/>
     </row>
@@ -2263,13 +2262,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -2277,135 +2276,135 @@
         <v>136</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="26" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="11" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="26" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="11" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="11" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -2413,18 +2412,18 @@
         <v>97</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>98</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="26" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="13" t="s">
@@ -2443,7 +2442,7 @@
         <v>105</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:91" x14ac:dyDescent="0.35">
@@ -2455,7 +2454,7 @@
         <v>104</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:91" x14ac:dyDescent="0.35">
@@ -2467,7 +2466,7 @@
         <v>94</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:91" x14ac:dyDescent="0.35">
@@ -2479,7 +2478,7 @@
         <v>185</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:91" x14ac:dyDescent="0.35">
@@ -2491,7 +2490,7 @@
         <v>189</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:91" x14ac:dyDescent="0.35">
@@ -2527,7 +2526,7 @@
         <v>103</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:91" ht="58" x14ac:dyDescent="0.35">
@@ -2535,13 +2534,13 @@
         <v>178</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:91" x14ac:dyDescent="0.35">
@@ -2553,7 +2552,7 @@
         <v>101</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2565,7 +2564,7 @@
         <v>107</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -2664,7 +2663,7 @@
         <v>106</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:91" x14ac:dyDescent="0.35">
@@ -2676,7 +2675,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:91" x14ac:dyDescent="0.35">
@@ -2688,7 +2687,7 @@
         <v>171</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:91" ht="43.5" x14ac:dyDescent="0.35">
@@ -2700,7 +2699,7 @@
         <v>95</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:91" x14ac:dyDescent="0.35">
@@ -2712,7 +2711,7 @@
         <v>131</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="1:91" ht="29" x14ac:dyDescent="0.35">
@@ -2724,7 +2723,7 @@
         <v>173</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -2733,10 +2732,10 @@
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -2745,10 +2744,10 @@
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
@@ -2756,13 +2755,13 @@
         <v>163</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
@@ -2770,13 +2769,13 @@
         <v>89</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -2800,7 +2799,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -2812,7 +2811,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -2856,13 +2855,13 @@
         <v>86</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>87</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
@@ -2870,13 +2869,13 @@
         <v>161</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>84</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -2884,13 +2883,13 @@
         <v>81</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
@@ -2898,13 +2897,13 @@
         <v>79</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>80</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
@@ -2916,7 +2915,7 @@
         <v>78</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
@@ -2928,7 +2927,7 @@
         <v>76</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
@@ -2936,13 +2935,13 @@
         <v>73</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>74</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
@@ -2954,7 +2953,7 @@
         <v>72</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
@@ -2966,7 +2965,7 @@
         <v>70</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
@@ -2974,13 +2973,13 @@
         <v>67</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
@@ -2992,7 +2991,7 @@
         <v>66</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
@@ -3004,7 +3003,7 @@
         <v>64</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
@@ -3012,13 +3011,13 @@
         <v>61</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
@@ -3026,13 +3025,13 @@
         <v>59</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="232" x14ac:dyDescent="0.35">
@@ -3040,13 +3039,13 @@
         <v>57</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
@@ -3054,13 +3053,13 @@
         <v>160</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
@@ -3072,7 +3071,7 @@
         <v>54</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
@@ -3084,7 +3083,7 @@
         <v>52</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
@@ -3096,7 +3095,7 @@
         <v>50</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
@@ -3108,7 +3107,7 @@
         <v>192</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
@@ -3120,7 +3119,7 @@
         <v>48</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -3132,7 +3131,7 @@
         <v>159</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:91" x14ac:dyDescent="0.35">
@@ -3144,7 +3143,7 @@
         <v>45</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="66" spans="1:91" x14ac:dyDescent="0.35">
@@ -3156,7 +3155,7 @@
         <v>43</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:91" x14ac:dyDescent="0.35">
@@ -3168,7 +3167,7 @@
         <v>197</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:91" x14ac:dyDescent="0.35">
@@ -3180,7 +3179,7 @@
         <v>199</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:91" x14ac:dyDescent="0.35">
@@ -3204,7 +3203,7 @@
         <v>40</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:91" ht="29" x14ac:dyDescent="0.35">
@@ -3216,7 +3215,7 @@
         <v>158</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:91" x14ac:dyDescent="0.35">
@@ -3228,7 +3227,7 @@
         <v>40</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" spans="1:91" x14ac:dyDescent="0.35">
@@ -3240,7 +3239,7 @@
         <v>194</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" spans="1:91" x14ac:dyDescent="0.35">
@@ -3252,7 +3251,7 @@
         <v>38</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="1:91" x14ac:dyDescent="0.35">
@@ -3264,7 +3263,7 @@
         <v>36</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:91" x14ac:dyDescent="0.35">
@@ -3272,13 +3271,13 @@
         <v>33</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="77" spans="1:91" x14ac:dyDescent="0.35">
@@ -3286,13 +3285,13 @@
         <v>31</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="78" spans="1:91" x14ac:dyDescent="0.35">
@@ -3304,7 +3303,7 @@
         <v>88</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:91" x14ac:dyDescent="0.35">
@@ -3435,13 +3434,13 @@
         <v>202</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
@@ -3449,13 +3448,13 @@
         <v>203</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
@@ -3463,13 +3462,13 @@
         <v>204</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -3489,13 +3488,13 @@
         <v>208</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
@@ -3519,7 +3518,7 @@
         <v>29</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
@@ -3531,7 +3530,7 @@
         <v>93</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -3540,10 +3539,10 @@
       </c>
       <c r="B90" s="15"/>
       <c r="C90" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
@@ -3567,7 +3566,7 @@
         <v>26</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
@@ -3579,7 +3578,7 @@
         <v>25</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
@@ -3591,7 +3590,7 @@
         <v>24</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
@@ -3603,7 +3602,7 @@
         <v>23</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
@@ -3627,7 +3626,7 @@
         <v>22</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="98" spans="1:91" x14ac:dyDescent="0.35">
@@ -3651,7 +3650,7 @@
         <v>21</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="100" spans="1:91" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -3663,7 +3662,7 @@
         <v>20</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E100"/>
       <c r="F100"/>
@@ -3762,7 +3761,7 @@
         <v>19</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:91" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -3774,7 +3773,7 @@
         <v>18</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E102"/>
       <c r="F102"/>
@@ -3869,13 +3868,13 @@
         <v>145</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:91" x14ac:dyDescent="0.35">
@@ -3884,10 +3883,10 @@
       </c>
       <c r="B104" s="15"/>
       <c r="C104" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" spans="1:91" x14ac:dyDescent="0.35">
@@ -3899,7 +3898,7 @@
         <v>10</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:91" ht="29" x14ac:dyDescent="0.35">
@@ -3907,13 +3906,13 @@
         <v>143</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C106" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:91" x14ac:dyDescent="0.35">
@@ -3925,7 +3924,7 @@
         <v>12</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="1:91" x14ac:dyDescent="0.35">
@@ -3937,38 +3936,38 @@
         <v>15</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:91" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A109" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B109" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="110" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A110" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B110" s="15"/>
       <c r="C110" s="13" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" spans="1:91" x14ac:dyDescent="0.35">
       <c r="A111" s="26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B111" s="16"/>
       <c r="C111" s="13" t="s">
@@ -4035,19 +4034,19 @@
         <v>213</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="25" t="s">
         <v>215</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="13" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -4059,7 +4058,7 @@
         <v>96</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -4071,7 +4070,7 @@
         <v>8</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -4079,18 +4078,18 @@
         <v>6</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B121" s="16"/>
       <c r="C121" s="13" t="s">
@@ -4162,7 +4161,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="39" t="s">
@@ -4175,51 +4174,51 @@
         <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B4" s="30"/>
       <c r="C4" s="13" t="s">
         <v>109</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="13" t="s">
         <v>110</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -4231,21 +4230,21 @@
         <v>112</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -4257,12 +4256,12 @@
         <v>114</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="13" t="s">
@@ -4274,14 +4273,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B10" s="30"/>
       <c r="C10" s="13" t="s">
         <v>115</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
@@ -4289,13 +4288,13 @@
         <v>116</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="87" x14ac:dyDescent="0.35">
@@ -4303,32 +4302,32 @@
         <v>118</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>119</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B14" s="30"/>
       <c r="C14" s="13" t="s">
@@ -4355,18 +4354,18 @@
         <v>97</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>126</v>
@@ -4385,12 +4384,12 @@
         <v>127</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="13" t="s">
@@ -4421,12 +4420,12 @@
         <v>128</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B22" s="34" t="s">
         <v>129</v>
@@ -4438,7 +4437,7 @@
     </row>
     <row r="23" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>130</v>
@@ -4462,38 +4461,38 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="13" t="s">
         <v>91</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B26" s="30"/>
       <c r="C26" s="13" t="s">
         <v>133</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B27" s="30"/>
       <c r="C27" s="13" t="s">
         <v>134</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -4502,7 +4501,7 @@
       </c>
       <c r="B28" s="30"/>
       <c r="C28" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>4</v>
@@ -4514,7 +4513,7 @@
       </c>
       <c r="B29" s="30"/>
       <c r="C29" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>4</v>
@@ -4526,7 +4525,7 @@
       </c>
       <c r="B30" s="30"/>
       <c r="C30" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>4</v>
@@ -4538,7 +4537,7 @@
       </c>
       <c r="B31" s="30"/>
       <c r="C31" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>4</v>
@@ -4550,7 +4549,7 @@
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>4</v>
@@ -4562,7 +4561,7 @@
       </c>
       <c r="B33" s="30"/>
       <c r="C33" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>4</v>
@@ -4574,7 +4573,7 @@
       </c>
       <c r="B34" s="30"/>
       <c r="C34" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>4</v>
@@ -4586,7 +4585,7 @@
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>4</v>
@@ -4598,7 +4597,7 @@
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>4</v>
@@ -4610,7 +4609,7 @@
       </c>
       <c r="B37" s="30"/>
       <c r="C37" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>4</v>
@@ -4622,7 +4621,7 @@
       </c>
       <c r="B38" s="30"/>
       <c r="C38" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>4</v>
@@ -4634,7 +4633,7 @@
       </c>
       <c r="B39" s="30"/>
       <c r="C39" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D39" s="14" t="s">
         <v>4</v>
@@ -4646,7 +4645,7 @@
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>4</v>
@@ -4658,7 +4657,7 @@
       </c>
       <c r="B41" s="30"/>
       <c r="C41" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>4</v>
@@ -4670,7 +4669,7 @@
       </c>
       <c r="B42" s="30"/>
       <c r="C42" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>4</v>
@@ -4682,7 +4681,7 @@
       </c>
       <c r="B43" s="30"/>
       <c r="C43" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>4</v>
@@ -4694,7 +4693,7 @@
       </c>
       <c r="B44" s="30"/>
       <c r="C44" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>4</v>
@@ -4706,7 +4705,7 @@
       </c>
       <c r="B45" s="30"/>
       <c r="C45" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>4</v>
@@ -4718,7 +4717,7 @@
       </c>
       <c r="B46" s="30"/>
       <c r="C46" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>4</v>
@@ -4730,7 +4729,7 @@
       </c>
       <c r="B47" s="30"/>
       <c r="C47" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>4</v>
@@ -4742,7 +4741,7 @@
       </c>
       <c r="B48" s="30"/>
       <c r="C48" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D48" s="14" t="s">
         <v>4</v>
@@ -4754,7 +4753,7 @@
       </c>
       <c r="B49" s="30"/>
       <c r="C49" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>4</v>
@@ -4766,7 +4765,7 @@
       </c>
       <c r="B50" s="30"/>
       <c r="C50" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>4</v>
@@ -4778,7 +4777,7 @@
       </c>
       <c r="B51" s="30"/>
       <c r="C51" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>4</v>
@@ -4790,7 +4789,7 @@
       </c>
       <c r="B52" s="30"/>
       <c r="C52" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>4</v>
@@ -4802,7 +4801,7 @@
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D53" s="14" t="s">
         <v>4</v>
@@ -4814,7 +4813,7 @@
       </c>
       <c r="B54" s="30"/>
       <c r="C54" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D54" s="14" t="s">
         <v>4</v>
@@ -4826,7 +4825,7 @@
       </c>
       <c r="B55" s="30"/>
       <c r="C55" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>4</v>
@@ -4838,7 +4837,7 @@
       </c>
       <c r="B56" s="30"/>
       <c r="C56" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>4</v>
@@ -4850,7 +4849,7 @@
       </c>
       <c r="B57" s="30"/>
       <c r="C57" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>4</v>
@@ -4906,7 +4905,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B62" s="30"/>
       <c r="C62" s="13" t="s">
@@ -4922,10 +4921,10 @@
       </c>
       <c r="B63" s="30"/>
       <c r="C63" s="13" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
@@ -4934,10 +4933,10 @@
       </c>
       <c r="B64" s="30"/>
       <c r="C64" s="13" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
@@ -4946,7 +4945,7 @@
       </c>
       <c r="B65" s="30"/>
       <c r="C65" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D65" s="14" t="s">
         <v>4</v>
@@ -4958,7 +4957,7 @@
       </c>
       <c r="B66" s="30"/>
       <c r="C66" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D66" s="14" t="s">
         <v>4</v>
@@ -4970,7 +4969,7 @@
       </c>
       <c r="B67" s="30"/>
       <c r="C67" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>4</v>
@@ -4982,7 +4981,7 @@
       </c>
       <c r="B68" s="30"/>
       <c r="C68" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>4</v>
@@ -4990,11 +4989,11 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B69" s="30"/>
       <c r="C69" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>4</v>
@@ -5005,32 +5004,32 @@
         <v>120</v>
       </c>
       <c r="B70" s="30" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B71" s="20" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="31" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B72" s="32"/>
       <c r="C72" s="18" t="s">
@@ -5059,7 +5058,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21E83F60-BC4E-4F25-B3DD-68CBE744300F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B337459-FD98-49CF-88C7-83BD9C8D7225}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>

--- a/docs/Resources/Guides/Payeezy/Payeezy_Developer_API_Element_Mapping.xlsx
+++ b/docs/Resources/Guides/Payeezy/Payeezy_Developer_API_Element_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F579BD-F352-4F63-8C8B-76FE2EC08F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD95CEB-4B59-4A6F-9F5B-B6E1E905031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10725" yWindow="-21135" windowWidth="22410" windowHeight="19770" xr2:uid="{E92A6C69-9137-41E6-80A1-AC212766AA5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E92A6C69-9137-41E6-80A1-AC212766AA5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Request Element Mapping" sheetId="3" r:id="rId1"/>
@@ -1273,10 +1273,6 @@
     <t>ean</t>
   </si>
   <si>
-    <t>card.securityCode
-additionalDataCommon.additionalData.securityCodeType</t>
-  </si>
-  <si>
     <t>Allows same value as Payeezy Gateway Direct.
 Set securityCodeType = SCV</t>
   </si>
@@ -1308,6 +1304,10 @@
   </si>
   <si>
     <t>PaymentReceipt.ProcessorResponseDetails.referenceNumber</t>
+  </si>
+  <si>
+    <t>target.card.securityCode
+additionalDataCommon.additionalData.securityCodeType</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1658,6 +1658,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1666,33 +1669,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2448,14 +2424,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
@@ -2608,10 +2584,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="17" t="s">
         <v>319</v>
       </c>
@@ -2620,10 +2596,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="17" t="s">
         <v>320</v>
       </c>
@@ -2632,10 +2608,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="17" t="s">
         <v>321</v>
       </c>
@@ -2990,7 +2966,7 @@
       <c r="A38" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="33" t="s">
         <v>323</v>
       </c>
       <c r="C38" s="12" t="s">
@@ -4336,39 +4312,39 @@
       </c>
     </row>
     <row r="125" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="B125" s="39"/>
-      <c r="C125" s="36" t="s">
+      <c r="B125" s="14"/>
+      <c r="C125" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D125" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D125" s="37" t="s">
+    </row>
+    <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D126" s="11" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="B126" s="39"/>
-      <c r="C126" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="D126" s="37" t="s">
+    <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B127" s="14"/>
+      <c r="C127" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D127" s="11" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A127" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="B127" s="39"/>
-      <c r="C127" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="D127" s="37" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4408,14 +4384,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="33"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="31" t="s">
@@ -4665,7 +4641,7 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>266</v>
@@ -5288,36 +5264,36 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" s="38" t="s">
-        <v>331</v>
-      </c>
-      <c r="B73" s="43"/>
-      <c r="C73" s="36" t="s">
-        <v>333</v>
+      <c r="A73" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="B74" s="43"/>
-      <c r="C74" s="36" t="s">
-        <v>334</v>
+      <c r="A74" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B74" s="27"/>
+      <c r="C74" s="12" t="s">
+        <v>333</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="42" t="s">
+      <c r="A75" s="24" t="s">
         <v>335</v>
+      </c>
+      <c r="B75" s="29"/>
+      <c r="C75" s="17" t="s">
+        <v>334</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>266</v>

--- a/docs/Resources/Guides/Payeezy/Payeezy_Developer_API_Element_Mapping.xlsx
+++ b/docs/Resources/Guides/Payeezy/Payeezy_Developer_API_Element_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fchxk57\Documents\Merchant Migration Playbook Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD95CEB-4B59-4A6F-9F5B-B6E1E905031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF07390C-16C0-45D6-896A-9BC141D68025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E92A6C69-9137-41E6-80A1-AC212766AA5D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{E92A6C69-9137-41E6-80A1-AC212766AA5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Request Element Mapping" sheetId="3" r:id="rId1"/>
@@ -1294,9 +1294,6 @@
     <t>balances.endingBalance</t>
   </si>
   <si>
-    <t>blanaces.begginingBalance</t>
-  </si>
-  <si>
     <t>processorResponseDetails.approvalCode</t>
   </si>
   <si>
@@ -1308,6 +1305,9 @@
   <si>
     <t>target.card.securityCode
 additionalDataCommon.additionalData.securityCodeType</t>
+  </si>
+  <si>
+    <t>balanaces.beginningBalance</t>
   </si>
 </sst>
 </file>
@@ -2409,7 +2409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90300E-5F3B-487C-9147-6DCE184BEE6E}">
   <dimension ref="A1:CM127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D125" s="11" t="s">
         <v>327</v>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D126" s="11" t="s">
         <v>328</v>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B127" s="14"/>
       <c r="C127" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>329</v>
@@ -4368,7 +4368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3E5FA6-E192-41C6-B83D-99D2CE6D66BA}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B17" sqref="B17"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>266</v>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="B74" s="27"/>
       <c r="C74" s="12" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>266</v>
@@ -5289,11 +5289,11 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B75" s="29"/>
       <c r="C75" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>266</v>
